--- a/src/main/resources/data/DatosExcel.xlsx
+++ b/src/main/resources/data/DatosExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Automatizacion pruebas en disco C\Junit4\ScreenplayWebMasExc\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C6799A-2470-4F04-90F1-7D0A43E6867B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03842ED-076E-4D5E-86D0-11B38ED7F564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{D6E497CA-48BA-47A3-B119-AA4EA4B9FF8C}"/>
   </bookViews>
@@ -673,7 +673,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -721,7 +721,7 @@
         <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>42</v>
